--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S49</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S226</t>
+          <t>S219</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S77</t>
+          <t>S72</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1888,12 +1888,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S178404</t>
+          <t>S177808</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S151174</t>
+          <t>S158130</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S164</t>
+          <t>S137</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S165559</t>
+          <t>S159297</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S58</t>
+          <t>S47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>S218809</t>
+          <t>S213882</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3971,17 +3971,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>S197915</t>
+          <t>S197446</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4408,12 +4408,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>S211999</t>
+          <t>S211952</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S90</t>
+          <t>S89</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5920,12 +5920,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>S226909</t>
+          <t>S224644</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S169886</t>
+          <t>S137515</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>S99</t>
+          <t>S98</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7211,17 +7211,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S180</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S146</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S176106</t>
+          <t>S138724</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S94</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S243</t>
+          <t>S162</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7931,17 +7931,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S180</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S118</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S204993</t>
+          <t>S150270</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S155169</t>
+          <t>S187764</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>S189193</t>
+          <t>S188858</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S55</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>S163004</t>
+          <t>S182026</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>S267032</t>
+          <t>S172127</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>S200005</t>
+          <t>S198650</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S48</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S226</t>
+          <t>S219</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S77</t>
+          <t>S72</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -11195,12 +11195,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S178404</t>
+          <t>S177808</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -11262,17 +11262,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S151174</t>
+          <t>S158130</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -11411,12 +11411,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S133</t>
+          <t>S137</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S165559</t>
+          <t>S159297</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S55</t>
+          <t>S47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -12419,12 +12419,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>S218809</t>
+          <t>S213882</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -13278,17 +13278,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>S197915</t>
+          <t>S197446</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -13715,12 +13715,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>S211999</t>
+          <t>S211952</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S90</t>
+          <t>S89</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S44</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -15227,12 +15227,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>S226909</t>
+          <t>S224644</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -16518,17 +16518,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S180</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S146</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S139717</t>
+          <t>S138724</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -16595,7 +16595,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S76</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S239</t>
+          <t>S162</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17099,7 +17099,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -17238,17 +17238,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S180</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S118</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S149210</t>
+          <t>S150270</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S184965</t>
+          <t>S187764</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -17459,7 +17459,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S55</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -18688,7 +18688,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>S200005</t>
+          <t>S198650</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S44</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S95</t>
+          <t>S93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S137</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>S146</t>
+          <t>S105</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S162</t>
+          <t>S155</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S118</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S187764</t>
+          <t>S177870</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S44</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S95</t>
+          <t>S93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -11411,12 +11411,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S137</t>
+          <t>S240</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159297</t>
+          <t>S159345</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>S146</t>
+          <t>S105</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S162</t>
+          <t>S155</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S118</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S187764</t>
+          <t>S177870</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S297626</t>
+          <t>S298548</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>S150</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S221</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159297</t>
+          <t>S159345</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S47</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>S226280</t>
+          <t>S226595</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S155</t>
+          <t>S138</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S219</t>
+          <t>S216</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S297626</t>
+          <t>S298548</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>S150</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S240</t>
+          <t>S211</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S47</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -11982,17 +11982,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S59</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>S226280</t>
+          <t>S226595</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S155</t>
+          <t>S136</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17747,7 +17747,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -520,12 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S219</t>
+          <t>S180</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S151958</t>
+          <t>S160857</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>S52</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S93</t>
+          <t>S92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S49</t>
+          <t>S44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S72</t>
+          <t>S71</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1955,17 +1955,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S100</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S158130</t>
+          <t>S151175</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S221</t>
+          <t>S62</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S57</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3107,17 +3107,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>S213882</t>
+          <t>S216439</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4619,12 +4619,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S89</t>
+          <t>S88</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S137515</t>
+          <t>S243434</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7216,12 +7216,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>S105</t>
+          <t>S87</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S138724</t>
+          <t>S197810</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7648,12 +7648,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S109</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>S195095</t>
+          <t>S192800</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S138</t>
+          <t>S117</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7936,12 +7936,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S43</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S150270</t>
+          <t>S163138</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S216</t>
+          <t>S180</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S151958</t>
+          <t>S160857</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>S52</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S47</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S93</t>
+          <t>S91</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S49</t>
+          <t>S44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S72</t>
+          <t>S71</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -11262,17 +11262,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S100</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S99</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S158130</t>
+          <t>S151175</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S211</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S59</t>
+          <t>S57</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -12414,17 +12414,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>S213882</t>
+          <t>S216439</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -13926,12 +13926,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S89</t>
+          <t>S88</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -15875,7 +15875,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S137515</t>
+          <t>S243434</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16523,12 +16523,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>S105</t>
+          <t>S87</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S138724</t>
+          <t>S197810</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16955,12 +16955,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S109</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>S195095</t>
+          <t>S192800</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S136</t>
+          <t>S117</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17243,12 +17243,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S43</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S150270</t>
+          <t>S163138</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S92</t>
+          <t>S91</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S120</t>
+          <t>S99</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S62</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S180</t>
+          <t>S177</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S160857</t>
+          <t>S151958</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -520,12 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S180</t>
+          <t>S177</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S160857</t>
+          <t>S151958</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S177</t>
+          <t>S153</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S44</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -11195,12 +11195,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S177808</t>
+          <t>S178600</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S99</t>
+          <t>S82</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11843,12 +11843,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S157</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>S237728</t>
+          <t>S237695</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -12203,7 +12203,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -12419,12 +12419,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>S216439</t>
+          <t>S216162</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -14430,12 +14430,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S88</t>
+          <t>S86</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14934,17 +14934,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>S179512</t>
+          <t>S180165</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -15366,17 +15366,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>S214641</t>
+          <t>S214576</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -15515,7 +15515,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S243434</t>
+          <t>S186200</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16518,17 +16518,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>S180</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>S87</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S197810</t>
+          <t>S207984</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -16672,7 +16672,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>S198329</t>
+          <t>S201144</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S55</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S109</t>
+          <t>S98</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S117</t>
+          <t>S104</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17238,17 +17238,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>S180</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>S43</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S163138</t>
+          <t>S150658</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S177870</t>
+          <t>S163143</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -17459,7 +17459,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>S172127</t>
+          <t>S226341</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -18755,7 +18755,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -18775,7 +18775,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S58</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -347,25 +347,11 @@
   </sheetPr>
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="12.5703125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="5"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="11.28515625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="11.140625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="8.7109375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="11.28515625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="17.42578125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="8.7109375"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="5"/>
-    <col bestFit="1" customWidth="1" max="14" min="13" width="8.7109375"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -534,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S153</t>
+          <t>S151</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -822,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -894,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1470,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1758,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S71</t>
+          <t>S58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1902,7 +1888,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2118,12 +2104,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S112</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159345</t>
+          <t>S159580</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2910,7 +2896,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2982,7 +2968,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4206,7 +4192,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4278,7 +4264,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4998,7 +4984,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5142,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5286,7 +5272,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5569,12 +5555,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S160</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S77</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5646,7 +5632,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6078,7 +6064,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S47</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6870,7 +6856,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7590,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S55</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7662,7 +7648,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S98</t>
+          <t>S94</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7734,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S104</t>
+          <t>S54</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8099,7 +8085,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S163143</t>
+          <t>S154670</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -9657,7 +9643,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -16327,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S186200</t>
+          <t>S137515</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16543,7 +16528,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S207984</t>
+          <t>S138724</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -17263,7 +17248,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S150658</t>
+          <t>S150270</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -17407,7 +17392,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S154670</t>
+          <t>S177863</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -18487,7 +18472,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>S226341</t>
+          <t>S172127</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S82</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S112</t>
+          <t>S107</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S77</t>
+          <t>S74</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S186200</t>
+          <t>S137515</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S207984</t>
+          <t>S138724</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S54</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S150658</t>
+          <t>S150270</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S154670</t>
+          <t>S177863</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>S226341</t>
+          <t>S172127</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10974,12 +10974,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S82</t>
+          <t>S77</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S112</t>
+          <t>S102</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S77</t>
+          <t>S71</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S44</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S54</t>
+          <t>S48</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S75</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S107</t>
+          <t>S97</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S74</t>
+          <t>S68</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S44</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S77</t>
+          <t>S73</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S102</t>
+          <t>S92</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S71</t>
+          <t>S65</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S44</t>
+          <t>S43</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S48</t>
+          <t>S43</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S75</t>
+          <t>S73</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S97</t>
+          <t>S92</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S68</t>
+          <t>S65</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S44</t>
+          <t>S43</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S43</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S73</t>
+          <t>S68</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S92</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S65</t>
+          <t>S57</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S43</t>
+          <t>S41</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S43</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S151</t>
+          <t>S142</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>S48</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S91</t>
+          <t>S89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S172001</t>
+          <t>S171813</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S73</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S151175</t>
+          <t>S158438</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S92</t>
+          <t>S121</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159580</t>
+          <t>S159544</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S157</t>
+          <t>S149</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2896,12 +2896,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>S157726</t>
+          <t>S198261</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>S184078</t>
+          <t>S183917</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S56</t>
+          <t>S52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>S199915</t>
+          <t>S221589</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3760,12 +3760,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>S214620</t>
+          <t>S215165</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4264,12 +4264,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>S211477</t>
+          <t>S208780</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S86</t>
+          <t>S85</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S65</t>
+          <t>S42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5915,17 +5915,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>S224644</t>
+          <t>S224305</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>S55</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S137515</t>
+          <t>S160831</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S138724</t>
+          <t>S189577</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S43</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7648,12 +7648,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S94</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>S192800</t>
+          <t>S192658</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S43</t>
+          <t>S274</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>S175867</t>
+          <t>S176069</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S150270</t>
+          <t>S194260</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -8435,17 +8435,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>S223139</t>
+          <t>S223078</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -9448,12 +9448,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>S200025</t>
+          <t>S200077</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S58</t>
+          <t>S57</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S151</t>
+          <t>S138</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>S48</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S91</t>
+          <t>S89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -11051,12 +11051,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S58</t>
+          <t>S54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S172001</t>
+          <t>S171813</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -11215,7 +11215,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -11267,12 +11267,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S68</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S151175</t>
+          <t>S158438</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -11411,12 +11411,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S102</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159580</t>
+          <t>S159544</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S157</t>
+          <t>S147</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -12203,12 +12203,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>S157726</t>
+          <t>S198261</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -12275,12 +12275,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>S184078</t>
+          <t>S183917</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S56</t>
+          <t>S52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -12851,12 +12851,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>S199915</t>
+          <t>S221589</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13067,12 +13067,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>S214620</t>
+          <t>S215165</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -13571,12 +13571,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>S211477</t>
+          <t>S208780</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -13807,7 +13807,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S86</t>
+          <t>S85</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S57</t>
+          <t>S41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -15155,7 +15155,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -15222,17 +15222,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>S224644</t>
+          <t>S224305</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -15515,7 +15515,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -15803,7 +15803,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>S55</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S137515</t>
+          <t>S160831</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S138724</t>
+          <t>S189577</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16955,12 +16955,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S94</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>S192800</t>
+          <t>S192658</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -17027,12 +17027,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S271</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>S175867</t>
+          <t>S176069</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S150270</t>
+          <t>S194260</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -17742,17 +17742,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>S223139</t>
+          <t>S223078</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -18755,12 +18755,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>S200025</t>
+          <t>S200077</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -18775,7 +18775,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S58</t>
+          <t>S57</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S142</t>
+          <t>S134</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S43</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S58</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S121</t>
+          <t>S85</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S149</t>
+          <t>S145</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4475,12 +4475,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S42</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5704,12 +5704,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S58</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>S180567</t>
+          <t>S147694</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S160831</t>
+          <t>S155165</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S189577</t>
+          <t>S186200</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S274</t>
+          <t>S260</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S194260</t>
+          <t>S207993</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S177863</t>
+          <t>S150698</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S138</t>
+          <t>S134</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S54</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -11195,12 +11195,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S178600</t>
+          <t>S177496</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -11215,7 +11215,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S102</t>
+          <t>S85</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S147</t>
+          <t>S145</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -13782,12 +13782,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -13807,7 +13807,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -15011,12 +15011,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S58</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>S180567</t>
+          <t>S147694</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -15515,7 +15515,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S160831</t>
+          <t>S137515</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S189577</t>
+          <t>S138724</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S271</t>
+          <t>S242</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S194260</t>
+          <t>S150270</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -18688,7 +18688,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>S198650</t>
+          <t>S196851</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -18755,7 +18755,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S57</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1888,12 +1888,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S178600</t>
+          <t>S177496</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S155165</t>
+          <t>S137515</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S186200</t>
+          <t>S138724</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S260</t>
+          <t>S242</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S207993</t>
+          <t>S150270</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S150698</t>
+          <t>S177863</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>S198650</t>
+          <t>S196851</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S57</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S53</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S85</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S242</t>
+          <t>S239</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S134</t>
+          <t>S129</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S53</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S85</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S58</t>
+          <t>S57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S137515</t>
+          <t>S169890</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S242</t>
+          <t>S239</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>S182026</t>
+          <t>S140000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S134</t>
+          <t>S129</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -12203,7 +12203,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S52</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -14291,12 +14291,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>S203594</t>
+          <t>S197850</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S58</t>
+          <t>S57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S137515</t>
+          <t>S169890</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>S182026</t>
+          <t>S140000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -1888,7 +1888,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S52</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>S203594</t>
+          <t>S197850</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S129</t>
+          <t>S125</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -14075,12 +14075,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>S217255</t>
+          <t>S217345</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S85</t>
+          <t>S84</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14939,12 +14939,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S56</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>S180165</t>
+          <t>S152416</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S44</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S129</t>
+          <t>S125</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>S217255</t>
+          <t>S217345</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S85</t>
+          <t>S84</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5632,12 +5632,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S56</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>S180165</t>
+          <t>S152416</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S44</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S125</t>
+          <t>S124</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S57</t>
+          <t>S56</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S125</t>
+          <t>S115</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S79</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S145</t>
+          <t>S143</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S57</t>
+          <t>S56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S57</t>
+          <t>S53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S169890</t>
+          <t>S155162</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S124</t>
+          <t>S113</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S75</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S145</t>
+          <t>S142</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S57</t>
+          <t>S55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S56</t>
+          <t>S53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S169890</t>
+          <t>S155162</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -16975,7 +16975,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S239</t>
+          <t>S232</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S115</t>
+          <t>S113</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S53</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>S41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S79</t>
+          <t>S75</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S143</t>
+          <t>S139</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S56</t>
+          <t>S55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S44</t>
+          <t>S43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S239</t>
+          <t>S219</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S298548</t>
+          <t>S297005</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S142</t>
+          <t>S139</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -14430,17 +14430,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>S172971</t>
+          <t>S173023</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S44</t>
+          <t>S43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -16955,12 +16955,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S150</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>S192658</t>
+          <t>S193033</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -16975,7 +16975,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S232</t>
+          <t>S219</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17747,7 +17747,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S298548</t>
+          <t>S297005</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5123,17 +5123,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>S172971</t>
+          <t>S173023</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -7648,12 +7648,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S150</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>S192658</t>
+          <t>S193033</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S113</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S75</t>
+          <t>S44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S139</t>
+          <t>S137</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S55</t>
+          <t>S54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S120</t>
+          <t>S108</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S155162</t>
+          <t>S169885</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S150</t>
+          <t>S145</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S219</t>
+          <t>S211</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -9750,12 +9750,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S300</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S113</t>
+          <t>S97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S42</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S75</t>
+          <t>S44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S139</t>
+          <t>S137</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S55</t>
+          <t>S54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S10</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S120</t>
+          <t>S107</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S56</t>
+          <t>S53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S43</t>
+          <t>S42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S155162</t>
+          <t>S169885</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S150</t>
+          <t>S145</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S219</t>
+          <t>S209</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -443,12 +443,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S300</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S100</t>
+          <t>S97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S42</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S108</t>
+          <t>S107</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S56</t>
+          <t>S53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S43</t>
+          <t>S42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S145</t>
+          <t>S143</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S211</t>
+          <t>S208</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S100</t>
+          <t>S96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -10110,12 +10110,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S54</t>
+          <t>S53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S145</t>
+          <t>S123</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S209</t>
+          <t>S206</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -17459,7 +17459,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S96</t>
+          <t>S93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S97</t>
+          <t>S83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>S750</t>
+          <t>S500</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S44</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S137</t>
+          <t>S127</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S54</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S107</t>
+          <t>S99</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S84</t>
+          <t>S82</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S53</t>
+          <t>S49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S42</t>
+          <t>S41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S169885</t>
+          <t>S160828</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S75</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S143</t>
+          <t>S72</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S208</t>
+          <t>S186</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S96</t>
+          <t>S93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S97</t>
+          <t>S83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S73</t>
+          <t>S77</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>S750</t>
+          <t>S500</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10254,12 +10254,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S44</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -11555,7 +11555,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S137</t>
+          <t>S125</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S53</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S35</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S107</t>
+          <t>S99</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S84</t>
+          <t>S82</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S53</t>
+          <t>S49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -15155,7 +15155,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S42</t>
+          <t>S41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -15803,7 +15803,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S169885</t>
+          <t>S160828</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S75</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S123</t>
+          <t>S72</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S206</t>
+          <t>S180</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Old Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="New Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +51,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -520,7 +521,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S83</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -808,7 +809,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -833,7 +834,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>S500</t>
+          <t>S550</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -880,7 +881,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1456,7 +1457,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2099,17 +2100,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>S240</t>
+          <t>S200</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S191</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159544</t>
+          <t>S159578</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2536,7 +2537,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S127</t>
+          <t>S124</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2608,7 +2609,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3688,7 +3689,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4408,7 +4409,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4480,7 +4481,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4624,7 +4625,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5128,7 +5129,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S99</t>
+          <t>S98</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5632,7 +5633,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S49</t>
+          <t>S47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6064,7 +6065,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -7576,7 +7577,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S75</t>
+          <t>S73</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7720,7 +7721,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S186</t>
+          <t>S177</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -9827,7 +9828,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S83</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10115,7 +10116,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S77</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10140,7 +10141,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>S500</t>
+          <t>S550</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -10187,7 +10188,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -11406,17 +11407,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>S240</t>
+          <t>S200</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S191</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159544</t>
+          <t>S159578</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -11843,7 +11844,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S125</t>
+          <t>S124</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -13715,7 +13716,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S33</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13931,7 +13932,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -14435,7 +14436,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S99</t>
+          <t>S98</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14939,7 +14940,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S49</t>
+          <t>S47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -15371,7 +15372,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S41</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -16883,7 +16884,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S75</t>
+          <t>S73</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17027,7 +17028,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S180</t>
+          <t>S177</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -347,11 +347,11 @@
   </sheetPr>
   <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -448,7 +448,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S100</t>
+          <t>S139</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9580,7 +9580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9678,12 +9678,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S300</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S139</t>
+          <t>S93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S191</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -9971,12 +9971,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>S165080</t>
+          <t>S165104</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -10038,12 +10038,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>S750</t>
+          <t>S550</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10182,12 +10182,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -10326,17 +10326,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>S172337</t>
+          <t>S172346</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -10572,7 +10572,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>S160</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -10691,12 +10691,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S298710</t>
+          <t>S297005</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>S150</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -10902,17 +10902,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>S189736</t>
+          <t>S198409</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -10974,17 +10974,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S90</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S167668</t>
+          <t>S171813</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -11046,17 +11046,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>S172223</t>
+          <t>S171898</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -11123,12 +11123,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S176710</t>
+          <t>S177496</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -11190,17 +11190,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S173083</t>
+          <t>S158438</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -11334,17 +11334,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>S90</t>
+          <t>S200</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S191</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159004</t>
+          <t>S159578</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -11555,12 +11555,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>S224041</t>
+          <t>S242827</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>S57</t>
+          <t>S56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -11771,12 +11771,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S95</t>
+          <t>S124</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>S237728</t>
+          <t>S237695</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -11910,17 +11910,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>S226280</t>
+          <t>S226595</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -12059,12 +12059,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>S197022</t>
+          <t>S212319</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -12131,12 +12131,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>S151668</t>
+          <t>S198261</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -12203,12 +12203,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>S184078</t>
+          <t>S183917</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -12342,17 +12342,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>S217440</t>
+          <t>S216162</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -12635,12 +12635,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>S229829</t>
+          <t>S230224</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -12779,12 +12779,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>S199915</t>
+          <t>S221589</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -12995,12 +12995,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>S214620</t>
+          <t>S215165</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -13067,12 +13067,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>S289737</t>
+          <t>S274318</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -13139,12 +13139,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>S218485</t>
+          <t>S218247</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -13206,17 +13206,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>S197915</t>
+          <t>S197446</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -13422,17 +13422,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>S213468</t>
+          <t>S213055</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -13499,12 +13499,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>S205598</t>
+          <t>S208780</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -13638,17 +13638,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>S211999</t>
+          <t>S211952</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -13710,12 +13710,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -13854,17 +13854,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>S209824</t>
+          <t>S209920</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -14003,12 +14003,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>S217255</t>
+          <t>S217345</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -14142,12 +14142,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -14214,17 +14214,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>S197377</t>
+          <t>S197850</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -14291,12 +14291,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>S187482</t>
+          <t>S195112</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -14358,17 +14358,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S98</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>S173021</t>
+          <t>S173023</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -14507,12 +14507,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>S201822</t>
+          <t>S201615</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S98</t>
+          <t>S82</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -14723,12 +14723,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>S144</t>
+          <t>S128</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>S209940</t>
+          <t>S210074</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -14790,12 +14790,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S160</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14862,17 +14862,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>S179512</t>
+          <t>S152416</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -14939,12 +14939,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>S180567</t>
+          <t>S147694</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -15011,12 +15011,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S78</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>S239978</t>
+          <t>S240535</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -15155,12 +15155,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>S226572</t>
+          <t>S224305</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -15227,12 +15227,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>S225857</t>
+          <t>S225879</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -15294,17 +15294,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>S214440</t>
+          <t>S214576</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -15443,12 +15443,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>S166157</t>
+          <t>S166185</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -15515,7 +15515,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -15654,17 +15654,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>S167402</t>
+          <t>S173940</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>S100</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -15726,17 +15726,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>S162657</t>
+          <t>S166536</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -15803,7 +15803,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -15875,12 +15875,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>S205974</t>
+          <t>S234615</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>S140</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -16091,12 +16091,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>S197521</t>
+          <t>S200258</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -16240,7 +16240,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S167992</t>
+          <t>S160828</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16307,12 +16307,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>S93</t>
+          <t>S98</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>S215157</t>
+          <t>S214634</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S141098</t>
+          <t>S138724</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>S198329</t>
+          <t>S201144</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -16667,12 +16667,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>S202832</t>
+          <t>S202701</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -16811,7 +16811,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S110</t>
+          <t>S73</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16878,17 +16878,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>S300</t>
+          <t>S150</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S217</t>
+          <t>S72</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>S192958</t>
+          <t>S193033</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -16950,17 +16950,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>S180</t>
+          <t>S300</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S105</t>
+          <t>S177</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>S175494</t>
+          <t>S176069</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -17094,17 +17094,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>S181342</t>
+          <t>S182769</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S149024</t>
+          <t>S150270</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S157817</t>
+          <t>S177863</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -17387,12 +17387,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>S239345</t>
+          <t>S239244</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>S189193</t>
+          <t>S188858</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -17531,7 +17531,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -17670,17 +17670,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>S223139</t>
+          <t>S223078</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -17747,12 +17747,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S94</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>S177222</t>
+          <t>S177274</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T262</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -17958,17 +17958,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S98</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>S181320</t>
+          <t>S190509</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -18107,7 +18107,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>S180</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -18179,12 +18179,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>S286561</t>
+          <t>S286280</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -18231,12 +18231,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S121</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>T556</t>
+          <t>T709</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -18246,22 +18246,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>S201167</t>
+          <t>S140000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S7968</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -18303,12 +18303,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S122</t>
+          <t>S121</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>T704</t>
+          <t>T556</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -18318,17 +18318,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>S214899</t>
+          <t>S201740</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -18375,12 +18375,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S123</t>
+          <t>S122</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>T705</t>
+          <t>T704</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -18400,7 +18400,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>S156122</t>
+          <t>S172127</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -18447,12 +18447,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S124</t>
+          <t>S123</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>T706</t>
+          <t>T705</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>S168506</t>
+          <t>S156121</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -18519,12 +18519,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S125</t>
+          <t>S124</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>T707</t>
+          <t>T706</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -18544,7 +18544,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>S195504</t>
+          <t>S168499</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -18591,12 +18591,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S126</t>
+          <t>S125</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>T904</t>
+          <t>T707</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -18606,22 +18606,22 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>S200025</t>
+          <t>S196851</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>S40000</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -18663,37 +18663,37 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S127</t>
+          <t>S126</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>T900</t>
+          <t>T904</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>S62</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>S209105</t>
+          <t>S200077</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>S9905</t>
+          <t>S40000</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>S150</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -18735,70 +18735,142 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>S127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>T900</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>S60</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>S209105</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>S9905</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>T0</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>S00000000</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>S150</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>S128</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>T295</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>S38</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>S278849</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>T0</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>S00000000</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>S48</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>S278849</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>S0</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>T0</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>S00000000</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>S0</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>S0</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
         <is>
           <t>S0</t>
         </is>

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,12 +443,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S300</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S139</t>
+          <t>S93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S191</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>S165080</t>
+          <t>S165104</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>S750</t>
+          <t>S550</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>S172337</t>
+          <t>S172346</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>S160</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S298710</t>
+          <t>S297005</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>S150</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1667,17 +1667,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>S189736</t>
+          <t>S198409</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S90</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S167668</t>
+          <t>S171813</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1811,17 +1811,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>S172223</t>
+          <t>S171898</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1888,12 +1888,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S176710</t>
+          <t>S177496</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1955,17 +1955,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S173083</t>
+          <t>S158438</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>S90</t>
+          <t>S200</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S191</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159004</t>
+          <t>S159578</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2320,12 +2320,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>S224041</t>
+          <t>S242827</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>S57</t>
+          <t>S56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S95</t>
+          <t>S124</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>S237728</t>
+          <t>S237695</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>S226280</t>
+          <t>S226595</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>S197022</t>
+          <t>S212319</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2896,12 +2896,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>S151668</t>
+          <t>S198261</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>S184078</t>
+          <t>S183917</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>S39</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3107,17 +3107,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>S217440</t>
+          <t>S216162</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3400,12 +3400,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>S229829</t>
+          <t>S230224</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>S38</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>S199915</t>
+          <t>S221589</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3760,12 +3760,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>S214620</t>
+          <t>S215165</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>S289737</t>
+          <t>S274318</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3904,12 +3904,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>S218485</t>
+          <t>S218247</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3971,17 +3971,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>S197915</t>
+          <t>S197446</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4187,17 +4187,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>S213468</t>
+          <t>S213055</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4264,12 +4264,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>S205598</t>
+          <t>S208780</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4403,17 +4403,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>S211999</t>
+          <t>S211952</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4475,12 +4475,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4619,17 +4619,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>S209824</t>
+          <t>S209920</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>S217255</t>
+          <t>S217345</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4979,17 +4979,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>S197377</t>
+          <t>S197850</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5056,12 +5056,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>S187482</t>
+          <t>S195112</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5123,17 +5123,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S98</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>S173021</t>
+          <t>S173023</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5272,12 +5272,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>S201822</t>
+          <t>S201615</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>S27</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>S98</t>
+          <t>S82</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5488,12 +5488,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>S144</t>
+          <t>S128</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>S209940</t>
+          <t>S210074</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S160</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5627,17 +5627,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>S179512</t>
+          <t>S152416</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5704,12 +5704,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>S180567</t>
+          <t>S147694</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>S78</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>S239978</t>
+          <t>S240535</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5920,12 +5920,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>S226572</t>
+          <t>S224305</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5992,12 +5992,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>S225857</t>
+          <t>S225879</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6059,17 +6059,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>S214440</t>
+          <t>S214576</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6208,12 +6208,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>S23</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>S166157</t>
+          <t>S166185</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6419,17 +6419,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>S167402</t>
+          <t>S173940</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>S100</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6491,17 +6491,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>S162657</t>
+          <t>S166536</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6640,12 +6640,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>S205974</t>
+          <t>S234615</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>S140</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>S197521</t>
+          <t>S200258</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S167992</t>
+          <t>S160828</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7072,12 +7072,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>S93</t>
+          <t>S98</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>S215157</t>
+          <t>S214634</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S141098</t>
+          <t>S138724</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>S37</t>
+          <t>S34</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>S198329</t>
+          <t>S201144</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>S202832</t>
+          <t>S202701</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S110</t>
+          <t>S73</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7643,17 +7643,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>S300</t>
+          <t>S150</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>S217</t>
+          <t>S72</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>S192958</t>
+          <t>S193033</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7715,17 +7715,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>S180</t>
+          <t>S300</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S105</t>
+          <t>S177</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>S175494</t>
+          <t>S176069</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7859,17 +7859,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S24</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>S181342</t>
+          <t>S182769</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S149024</t>
+          <t>S150270</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S157817</t>
+          <t>S177863</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -8152,12 +8152,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>S239345</t>
+          <t>S239244</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>S189193</t>
+          <t>S188858</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -8435,17 +8435,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>S223139</t>
+          <t>S223078</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>S94</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>S177222</t>
+          <t>S177274</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T262</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -8723,17 +8723,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S98</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>S181320</t>
+          <t>S190509</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>S180</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -8944,12 +8944,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>S286561</t>
+          <t>S286280</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -8996,12 +8996,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S121</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>T556</t>
+          <t>T709</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -9011,22 +9011,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>S201167</t>
+          <t>S140000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S7968</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -9068,12 +9068,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S122</t>
+          <t>S121</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>T704</t>
+          <t>T556</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -9083,17 +9083,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S40</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>S214899</t>
+          <t>S201740</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -9140,12 +9140,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S123</t>
+          <t>S122</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>T705</t>
+          <t>T704</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>S156122</t>
+          <t>S172127</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -9212,12 +9212,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S124</t>
+          <t>S123</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>T706</t>
+          <t>T705</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>S168506</t>
+          <t>S156121</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -9284,12 +9284,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S125</t>
+          <t>S124</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>T707</t>
+          <t>T706</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>S195504</t>
+          <t>S168499</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -9356,12 +9356,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S126</t>
+          <t>S125</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>T904</t>
+          <t>T707</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -9371,22 +9371,22 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>S200025</t>
+          <t>S196851</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>S40000</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -9428,37 +9428,37 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S127</t>
+          <t>S126</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>T900</t>
+          <t>T904</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>S62</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S19</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>S209105</t>
+          <t>S200077</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>S9905</t>
+          <t>S40000</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>S150</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9500,70 +9500,142 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>S127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>T900</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>S60</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>S16</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>S209105</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>S9905</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>T0</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>S00000000</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>S150</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>S128</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>T295</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>S38</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>S278849</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>T0</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>S00000000</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>S48</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>S278849</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>S0</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>T0</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>S00000000</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>S0</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>S0</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>S0</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
         <is>
           <t>S0</t>
         </is>
@@ -9755,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10043,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -14363,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S98</t>
+          <t>S97</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14795,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14867,7 +14939,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S47</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -15371,7 +15443,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -16240,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S160828</t>
+          <t>S175006</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -18755,7 +18827,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S98</t>
+          <t>S97</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S14</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>S47</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S160828</t>
+          <t>S175006</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S16</t>
+          <t>S15</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S93</t>
+          <t>S87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S78</t>
+          <t>S76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S191</t>
+          <t>S186</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S53</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -16451,12 +16451,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>S195902</t>
+          <t>S171587</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S73</t>
+          <t>S72</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S177</t>
+          <t>S165</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S93</t>
+          <t>S87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S78</t>
+          <t>S76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S24</t>
+          <t>S43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S34</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S191</t>
+          <t>S186</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S124</t>
+          <t>S119</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>S53</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7144,12 +7144,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S29</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>S195902</t>
+          <t>S171587</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S73</t>
+          <t>S72</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S177</t>
+          <t>S158</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>S15</t>
+          <t>S13</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S76</t>
+          <t>S71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10110,12 +10110,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S80</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S17</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S13</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11411,12 +11411,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S186</t>
+          <t>S189</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159578</t>
+          <t>S159649</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S124</t>
+          <t>S118</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S97</t>
+          <t>S95</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S72</t>
+          <t>S68</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S165</t>
+          <t>S154</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -17747,7 +17747,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S35</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S76</t>
+          <t>S69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S43</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S25</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S186</t>
+          <t>S178</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S159578</t>
+          <t>S159649</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S119</t>
+          <t>S117</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>S17</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S97</t>
+          <t>S94</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>S11</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S25</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S40</t>
+          <t>S39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S72</t>
+          <t>S67</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S158</t>
+          <t>S152</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S71</t>
+          <t>S69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S21</t>
+          <t>S20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10110,12 +10110,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>S00000000</t>
+          <t>S10000000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S26</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S28</t>
+          <t>S27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S189</t>
+          <t>S178</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S118</t>
+          <t>S117</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S95</t>
+          <t>S94</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S68</t>
+          <t>S67</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S154</t>
+          <t>S152</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">

--- a/moduler/toolmonitor_data/results/RawDatabase.xlsx
+++ b/moduler/toolmonitor_data/results/RawDatabase.xlsx
@@ -9755,7 +9755,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S87</t>
+          <t>S83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>S36</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>S750</t>
+          <t>S280</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -10110,17 +10110,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S60</t>
+          <t>S80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S0</t>
+          <t>S75</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>S130045</t>
+          <t>S130039</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>S10000000</t>
+          <t>S00000000</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S22</t>
+          <t>S16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S178</t>
+          <t>S173</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>S20</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>S11</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>S19</t>
+          <t>S18</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S175006</t>
+          <t>S263260</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>S98</t>
+          <t>S97</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S138724</t>
+          <t>S193855</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>S67</t>
+          <t>S64</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -17022,17 +17022,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>S300</t>
+          <t>S150</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>S152</t>
+          <t>S150</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>S176069</t>
+          <t>S175544</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S150270</t>
+          <t>S207556</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S177863</t>
+          <t>S315107</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
